--- a/SnapdealTest01.xlsx
+++ b/SnapdealTest01.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BANKOLE\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BANKOLE\Documents\GitHub\SnapDealTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12915" windowHeight="6780" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12915" windowHeight="6780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -57,228 +57,21 @@
     <t>Defect ID</t>
   </si>
   <si>
-    <t>TC01</t>
-  </si>
-  <si>
-    <t>enter the website URL</t>
-  </si>
-  <si>
-    <t>website url</t>
-  </si>
-  <si>
-    <t>website should open and all menus loaded completely</t>
-  </si>
-  <si>
-    <t>Same as expected</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Click continue</t>
-  </si>
-  <si>
-    <t>TC02</t>
-  </si>
-  <si>
-    <t>Browser is open</t>
-  </si>
-  <si>
     <t>Test Case</t>
   </si>
   <si>
     <t>Kolapo Bankole</t>
   </si>
   <si>
-    <t>http://concept-nova.com/shop/</t>
-  </si>
-  <si>
     <t>Scenario ID</t>
   </si>
   <si>
-    <t>SC01</t>
-  </si>
-  <si>
-    <t>Validate that search box is functioning</t>
-  </si>
-  <si>
-    <t>Click on the search box</t>
-  </si>
-  <si>
-    <t>Enter name of product</t>
-  </si>
-  <si>
-    <t>Track and trace</t>
-  </si>
-  <si>
-    <t>Click on search</t>
-  </si>
-  <si>
-    <t>matching products should be displayed</t>
-  </si>
-  <si>
-    <t>Validate searchbox functionality with invalid product name</t>
-  </si>
-  <si>
-    <t>Validate searchbox functionality with valid product name</t>
-  </si>
-  <si>
-    <t>click on search box</t>
-  </si>
-  <si>
-    <t>france101</t>
-  </si>
-  <si>
-    <t>Message to show no matching products should be displayed</t>
-  </si>
-  <si>
-    <t>SC02</t>
-  </si>
-  <si>
-    <t>Validate customer can add items to cart and delete</t>
-  </si>
-  <si>
-    <t>TC03</t>
-  </si>
-  <si>
-    <t>Validate customer can add items to cart</t>
-  </si>
-  <si>
-    <t>Browser is open and URL loaded</t>
-  </si>
-  <si>
-    <t>Click on product name</t>
-  </si>
-  <si>
-    <t>Product description page should be displayed</t>
-  </si>
-  <si>
-    <t>Select quantity</t>
-  </si>
-  <si>
-    <t>Click on add to cart</t>
-  </si>
-  <si>
-    <t>Item should be added to cart and cart item number increased by quantity</t>
-  </si>
-  <si>
-    <t>Validate customer can delete items from cart</t>
-  </si>
-  <si>
-    <t>TC04</t>
-  </si>
-  <si>
-    <t>Browser is open and URL loaded and item added to cart</t>
-  </si>
-  <si>
-    <t>Click on view cart</t>
-  </si>
-  <si>
-    <t>Cart items should appear in a drop down</t>
-  </si>
-  <si>
-    <t>Click on remove button</t>
-  </si>
-  <si>
-    <t>Cart items should be displayed</t>
-  </si>
-  <si>
-    <t>Page should refresh with cart item removed</t>
-  </si>
-  <si>
-    <t>SC03</t>
-  </si>
-  <si>
-    <t>Validate customer can checkout item</t>
-  </si>
-  <si>
-    <t>TC05</t>
-  </si>
-  <si>
-    <t>Browser is open, URL loaded, item added to cart</t>
-  </si>
-  <si>
-    <t>Click on cart button at top right side of screen</t>
-  </si>
-  <si>
-    <t>Click on Checkout</t>
-  </si>
-  <si>
-    <t>Select guest checkout</t>
-  </si>
-  <si>
-    <t>Checkout page should be displayed</t>
-  </si>
-  <si>
-    <t>Billing details section should be displayed</t>
-  </si>
-  <si>
-    <t>Enter correct details</t>
-  </si>
-  <si>
-    <t>Delivery details section should be displayed</t>
-  </si>
-  <si>
-    <t>Enter correct details for delivery details</t>
-  </si>
-  <si>
-    <t>Enter correct details for delivery method</t>
-  </si>
-  <si>
-    <t>Enter correct details for Payment method</t>
-  </si>
-  <si>
-    <t>Click on confirm order</t>
-  </si>
-  <si>
-    <t>delivery method section should be displayed</t>
-  </si>
-  <si>
-    <t>payment method section should be displayed</t>
-  </si>
-  <si>
-    <t>confirm order section should be displayed</t>
-  </si>
-  <si>
-    <t>Validate new customer with accurate information can checkout item in cart</t>
-  </si>
-  <si>
-    <t>SC04</t>
-  </si>
-  <si>
-    <t>Validate customers can compare products</t>
-  </si>
-  <si>
-    <t>Order confirmed and information message displayed</t>
-  </si>
-  <si>
-    <t>To compare two products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on compare this product button on advanced track and trace </t>
-  </si>
-  <si>
-    <t>Notification of product added to product comparision should be displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on compare this product button on  track and trace </t>
-  </si>
-  <si>
-    <t>Click on product comparision link in Notification</t>
-  </si>
-  <si>
-    <t>Product comparision page should be displayed with the two products</t>
-  </si>
-  <si>
     <t>Test Cases Passed:</t>
   </si>
   <si>
     <t>Test Cases Failed:</t>
   </si>
   <si>
-    <t>TC06</t>
-  </si>
-  <si>
     <t>Number of Test cases:</t>
   </si>
   <si>
@@ -331,6 +124,9 @@
   </si>
   <si>
     <t>Executed Scenarios</t>
+  </si>
+  <si>
+    <t>https://www.snapdeal.com</t>
   </si>
 </sst>
 </file>
@@ -550,44 +346,44 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -598,6 +394,256 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -633,256 +679,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -897,21 +693,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A12:L45" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="14" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A12:L45" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
   <autoFilter ref="A12:L45"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Scenario ID" dataDxfId="13"/>
-    <tableColumn id="2" name="Test Scenario" dataDxfId="12"/>
-    <tableColumn id="3" name="Test Case ID" dataDxfId="11"/>
-    <tableColumn id="4" name="Test Case" dataDxfId="10"/>
-    <tableColumn id="5" name="Precondition" dataDxfId="9"/>
-    <tableColumn id="6" name="Execution Steps" dataDxfId="8"/>
-    <tableColumn id="7" name="Input Values" dataDxfId="7"/>
-    <tableColumn id="8" name="Expected Result" dataDxfId="6"/>
-    <tableColumn id="9" name="Actual Result" dataDxfId="5"/>
-    <tableColumn id="10" name="Pass/Fail" dataDxfId="4"/>
-    <tableColumn id="11" name="Comments" dataDxfId="3"/>
-    <tableColumn id="12" name="Defect ID" dataDxfId="2"/>
+    <tableColumn id="1" name="Scenario ID" dataDxfId="11"/>
+    <tableColumn id="2" name="Test Scenario" dataDxfId="10"/>
+    <tableColumn id="3" name="Test Case ID" dataDxfId="9"/>
+    <tableColumn id="4" name="Test Case" dataDxfId="8"/>
+    <tableColumn id="5" name="Precondition" dataDxfId="7"/>
+    <tableColumn id="6" name="Execution Steps" dataDxfId="6"/>
+    <tableColumn id="7" name="Input Values" dataDxfId="5"/>
+    <tableColumn id="8" name="Expected Result" dataDxfId="4"/>
+    <tableColumn id="9" name="Actual Result" dataDxfId="3"/>
+    <tableColumn id="10" name="Pass/Fail" dataDxfId="2"/>
+    <tableColumn id="11" name="Comments" dataDxfId="1"/>
+    <tableColumn id="12" name="Defect ID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1216,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E6"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,43 +1041,43 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="12"/>
+        <v>17</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="14">
+        <v>15</v>
+      </c>
+      <c r="C5" s="12">
         <v>6</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="E5" s="8">
         <v>6</v>
@@ -1297,9 +1093,9 @@
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="14"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="8" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="E6" s="8">
         <v>0</v>
@@ -1315,7 +1111,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="C7" s="8">
         <v>4</v>
@@ -1324,8 +1120,8 @@
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -1338,8 +1134,8 @@
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -1352,7 +1148,7 @@
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="15"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1371,72 +1167,56 @@
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="20" t="s">
+      <c r="D12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="L12" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>13</v>
-      </c>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="17"/>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
@@ -1444,15 +1224,13 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="17"/>
+      <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
@@ -1460,61 +1238,41 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="17"/>
-    </row>
-    <row r="16" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="17"/>
-    </row>
-    <row r="17" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="17"/>
+      <c r="L17" s="15"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -1522,15 +1280,13 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="17"/>
+      <c r="L18" s="15"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
@@ -1538,67 +1294,41 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="17"/>
-    </row>
-    <row r="20" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="10"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="17"/>
-    </row>
-    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="H21" s="6"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="17"/>
+      <c r="L21" s="15"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
@@ -1606,149 +1336,96 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="6">
-        <v>1</v>
-      </c>
+      <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="17"/>
-    </row>
-    <row r="23" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+      <c r="L22" s="15"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="17"/>
-    </row>
-    <row r="24" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="L23" s="15"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="H24" s="6"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="17"/>
-    </row>
-    <row r="25" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="L24" s="15"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="H25" s="6"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="17"/>
-    </row>
-    <row r="26" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="L25" s="15"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="17"/>
-    </row>
-    <row r="27" spans="1:12" ht="51" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="L26" s="15"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="H27" s="6"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="17"/>
-    </row>
-    <row r="28" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="L27" s="15"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="10"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="6" t="s">
-        <v>60</v>
-      </c>
+      <c r="H28" s="6"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
-      <c r="L28" s="17"/>
+      <c r="L28" s="15"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
@@ -1756,33 +1433,27 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="17"/>
-    </row>
-    <row r="30" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="L29" s="15"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="10"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="F30" s="6"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="H30" s="6"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
-      <c r="L30" s="17"/>
+      <c r="L30" s="15"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
@@ -1790,225 +1461,167 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="6" t="s">
-        <v>62</v>
-      </c>
+      <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
-      <c r="L31" s="17"/>
-    </row>
-    <row r="32" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="L31" s="15"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="10"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="F32" s="6"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="H32" s="6"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
-      <c r="L32" s="17"/>
-    </row>
-    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="L32" s="15"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="18"/>
-    </row>
-    <row r="34" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="L33" s="16"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="H34" s="4"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="18"/>
-    </row>
-    <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="L34" s="16"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="18"/>
-    </row>
-    <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="L35" s="16"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="H36" s="4"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="18"/>
-    </row>
-    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="L36" s="16"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="18"/>
-    </row>
-    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="L37" s="16"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="H38" s="4"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="18"/>
-    </row>
-    <row r="39" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="L38" s="16"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="18"/>
-    </row>
-    <row r="40" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="L39" s="16"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="4"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="18"/>
-    </row>
-    <row r="41" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="L40" s="16"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="F41" s="4"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="18"/>
-    </row>
-    <row r="42" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="L41" s="16"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="F42" s="4"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
       <c r="K42" s="4"/>
-      <c r="L42" s="18"/>
+      <c r="L42" s="16"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
@@ -2022,7 +1635,7 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="18"/>
+      <c r="L43" s="16"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
@@ -2036,21 +1649,21 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
-      <c r="L44" s="18"/>
+      <c r="L44" s="16"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="24"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2073,7 +1686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -2088,14 +1701,14 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="B2" s="4">
         <v>6</v>
@@ -2103,7 +1716,7 @@
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -2111,7 +1724,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -2119,7 +1732,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4">
         <v>6</v>
@@ -2127,24 +1740,24 @@
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -2161,7 +1774,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -2178,7 +1791,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -2195,7 +1808,7 @@
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
